--- a/tijd_gespendeerd.xlsx
+++ b/tijd_gespendeerd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rneyn\Documents\MAI\genetic algorithms\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B75830-C6BA-4CC9-93B0-0569FF966F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB92692-CB63-4E8E-9600-022D411AD37E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4242" yWindow="1668" windowWidth="17280" windowHeight="9444" xr2:uid="{0DA467F2-FAE9-4887-ABFE-0EDF2B17A4C0}"/>
   </bookViews>
@@ -31,12 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">date </t>
   </si>
   <si>
     <t># hours</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>getting to know the algorithm + doing some tests</t>
+  </si>
+  <si>
+    <t>implementing a stopping criterion</t>
   </si>
 </sst>
 </file>
@@ -398,28 +407,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661370F-27BC-4764-B1E7-05A2E6FA1C64}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>43777</v>
       </c>
       <c r="B2">
         <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>43784</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/tijd_gespendeerd.xlsx
+++ b/tijd_gespendeerd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rneyn\Documents\MAI\genetic algorithms\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB92692-CB63-4E8E-9600-022D411AD37E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8957EC1-948A-4500-A4EB-86C787B10EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4242" yWindow="1668" windowWidth="17280" windowHeight="9444" xr2:uid="{0DA467F2-FAE9-4887-ABFE-0EDF2B17A4C0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">date </t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>implementing a stopping criterion</t>
+  </si>
+  <si>
+    <t>other representation + crossover operator</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661370F-27BC-4764-B1E7-05A2E6FA1C64}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -448,6 +451,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>43791</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/tijd_gespendeerd.xlsx
+++ b/tijd_gespendeerd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rneyn\Documents\MAI\genetic algorithms\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8957EC1-948A-4500-A4EB-86C787B10EC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE8FDF-4584-4779-9F2B-7A96FC170C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4242" yWindow="1668" windowWidth="17280" windowHeight="9444" xr2:uid="{0DA467F2-FAE9-4887-ABFE-0EDF2B17A4C0}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{0DA467F2-FAE9-4887-ABFE-0EDF2B17A4C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">date </t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>other representation + crossover operator</t>
+  </si>
+  <si>
+    <t>finish crossover operator</t>
+  </si>
+  <si>
+    <t>cyclic crossover operator</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661370F-27BC-4764-B1E7-05A2E6FA1C64}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -462,6 +468,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>43798</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>43802</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/tijd_gespendeerd.xlsx
+++ b/tijd_gespendeerd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rneyn\Documents\MAI\genetic algorithms\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE8FDF-4584-4779-9F2B-7A96FC170C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2690BD-98C9-4852-85FB-DEE0F599EBD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{0DA467F2-FAE9-4887-ABFE-0EDF2B17A4C0}"/>
+    <workbookView xWindow="4242" yWindow="1668" windowWidth="17280" windowHeight="9444" xr2:uid="{0DA467F2-FAE9-4887-ABFE-0EDF2B17A4C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">date </t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>cyclic crossover operator</t>
+  </si>
+  <si>
+    <t>cyclic crossover operator + order crossover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finish order crossover </t>
+  </si>
+  <si>
+    <t>schrijven aan het verslag</t>
   </si>
 </sst>
 </file>
@@ -416,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661370F-27BC-4764-B1E7-05A2E6FA1C64}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -490,6 +499,45 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>43807</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>43808</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>43811</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <f>SUM(B2:B9)</f>
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/tijd_gespendeerd.xlsx
+++ b/tijd_gespendeerd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rneyn\Documents\MAI\genetic algorithms\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2690BD-98C9-4852-85FB-DEE0F599EBD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D02CE31-DC55-4963-AA61-6B7C66D425FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4242" yWindow="1668" windowWidth="17280" windowHeight="9444" xr2:uid="{0DA467F2-FAE9-4887-ABFE-0EDF2B17A4C0}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{0DA467F2-FAE9-4887-ABFE-0EDF2B17A4C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date </t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>schrijven aan het verslag</t>
+  </si>
+  <si>
+    <t>selection operators + writing</t>
+  </si>
+  <si>
+    <t>maken van heuristic crossover + heuristic mutation</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661370F-27BC-4764-B1E7-05A2E6FA1C64}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -532,10 +538,32 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>43815</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>43819</v>
+      </c>
       <c r="B11">
-        <f>SUM(B2:B9)</f>
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17">
+        <f>SUM(B2:B16)</f>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/tijd_gespendeerd.xlsx
+++ b/tijd_gespendeerd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rneyn\Documents\MAI\genetic algorithms\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D02CE31-DC55-4963-AA61-6B7C66D425FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4789300-F33B-4FAA-95E7-9239E21013A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{0DA467F2-FAE9-4887-ABFE-0EDF2B17A4C0}"/>
+    <workbookView xWindow="5760" yWindow="2826" windowWidth="17280" windowHeight="9444" xr2:uid="{0DA467F2-FAE9-4887-ABFE-0EDF2B17A4C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">date </t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>maken van heuristic crossover + heuristic mutation</t>
+  </si>
+  <si>
+    <t>finishing report</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -560,10 +563,21 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>43835</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17">
         <f>SUM(B2:B16)</f>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
